--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inouejunmp/Downloads/ORTHOSCOPE_STAR-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inouejun/Dropbox/My Mac (rrcs-172-254-99-49.nyc.biz.rr.com)/Desktop/ORTHOSCOPE_STAR_v1.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3CC51092-2C40-9644-8B21-CCF28A6D6E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40778335-BF69-0B43-B082-6DD1A79F3D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="3180" windowWidth="31960" windowHeight="22060"/>
+    <workbookView xWindow="11440" yWindow="5400" windowWidth="28300" windowHeight="17440" xr2:uid="{ECA6A41D-A76E-4448-BCB0-1746F84D294C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="280">
   <si>
     <t>Num</t>
   </si>
@@ -58,12 +58,12 @@
     <t>BHnum_Danio-rerio</t>
   </si>
   <si>
+    <t>BHnum_Tetraodon-nigroviridis</t>
+  </si>
+  <si>
     <t>BHnum_Gasterosteus-aculeatus</t>
   </si>
   <si>
-    <t>BHnum_Tetraodon-nigroviridis</t>
-  </si>
-  <si>
     <t>BHnum_Oryzias-latipes</t>
   </si>
   <si>
@@ -79,15 +79,15 @@
     <t>OGnum_Danio-rerio</t>
   </si>
   <si>
+    <t>OGnum_Oryzias-latipes</t>
+  </si>
+  <si>
     <t>OGnum_Tetraodon-nigroviridis</t>
   </si>
   <si>
     <t>OGnum_Gasterosteus-aculeatus</t>
   </si>
   <si>
-    <t>OGnum_Oryzias-latipes</t>
-  </si>
-  <si>
     <t>BS_of_BonyVertebrates_monophyly</t>
   </si>
   <si>
@@ -181,13 +181,16 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000217901.10_IDH3G-isocitrate-dehyd </t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>Tetraodon-nigroviridis</t>
   </si>
   <si>
     <t>ENSORLT00000020891.1</t>
   </si>
   <si>
-    <t>Teleostei(Percomorpha;Gasterosteus-aculeatus;Danio-rerio)</t>
+    <t>Teleostei(Eupercaria;Oryzias-latipes;Danio-rerio)</t>
   </si>
   <si>
     <t>Gasterosteus-aculeatus</t>
@@ -199,7 +202,7 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000371546.8_GRIN1-glutamate-ionotro </t>
   </si>
   <si>
-    <t>r</t>
+    <t>BonyVertebrates(Teleostei;Tetrapoda;Gasterosteus-aculeatus;Danio-rerio)</t>
   </si>
   <si>
     <t>ENSORLT00000003633.1</t>
@@ -211,15 +214,15 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000330062.8_IDH2-isocitrate-dehydro </t>
   </si>
   <si>
-    <t>Teleostei(Percomorpha;Tetraodon-nigroviridis;Danio-rerio)</t>
-  </si>
-  <si>
     <t>ENSORLT00000015930.1</t>
   </si>
   <si>
     <t xml:space="preserve">Homo-sapiens_ENST00000396573.6_GRIN2A-glutamate-ionotr </t>
   </si>
   <si>
+    <t>Teleostei</t>
+  </si>
+  <si>
     <t>ENSORLT00000015947.1</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000643927.1_PRKCB-protein-kinase-C- </t>
   </si>
   <si>
+    <t>Teleostei(Eupercaria;Danio-rerio)</t>
+  </si>
+  <si>
     <t>ENSORLT00000016470.1</t>
   </si>
   <si>
@@ -265,198 +271,204 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000423381.5_CAMK2G-calcium-calmodul </t>
   </si>
   <si>
+    <t>ENSORLT00000008754.1</t>
+  </si>
+  <si>
+    <t>Xenopus-tropicalis</t>
+  </si>
+  <si>
+    <t>ENSORLT00000019724.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000272602.7_CNGA3-cyclic-nucleotide </t>
+  </si>
+  <si>
+    <t>ENSORLT00000025598.1</t>
+  </si>
+  <si>
+    <t>Teleostei(Percomorpha;Danio-rerio)</t>
+  </si>
+  <si>
+    <t>ENSORLT00000001077.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000293190.10_GRIN2C-glutamate-ionot </t>
+  </si>
+  <si>
+    <t>ENSORLT00000013760.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000013837.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000638029.1_CACNA1A-calcium-voltage </t>
+  </si>
+  <si>
+    <t>ENSORLT00000011834.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000391997.3_PDC-phosducin </t>
+  </si>
+  <si>
+    <t>ENSORLT00000015501.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000307885.4_ADCY6-adenylate-cyclase </t>
+  </si>
+  <si>
+    <t>Amniota</t>
+  </si>
+  <si>
+    <t>ENSORLT00000005278.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000609686.4_GRIN2B-glutamate-ionotr </t>
+  </si>
+  <si>
+    <t>Percomorpha</t>
+  </si>
+  <si>
+    <t>BonyVertebrates(Tetrapoda;Danio-rerio)</t>
+  </si>
+  <si>
+    <t>ENSORLT00000009670.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000448073.8_GRIA1-glutamate-ionotro </t>
+  </si>
+  <si>
+    <t>ENSORLT00000009862.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000254854.5_GUCY2D-guanylate-cyclas </t>
+  </si>
+  <si>
+    <t>ENSORLT00000017326.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000371355.8_CACNA1B-calcium-voltage </t>
+  </si>
+  <si>
+    <t>Percomorpha(Oryzias-latipes;Gasterosteus-aculeatus)</t>
+  </si>
+  <si>
+    <t>ENSORLT00000017423.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000017805.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000018671.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000022931.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000375499.8_SDHB-succinate-dehydrog </t>
+  </si>
+  <si>
+    <t>ENSORLT00000000328.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000003094.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000013352.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000674920.1_ATF4-activating-transcr </t>
+  </si>
+  <si>
+    <t>ENSORLT00000021895.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000444676.5_OGDH-oxoglutarate-dehyd </t>
+  </si>
+  <si>
+    <t>ENSORLT00000017939.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000399634.5_CACNA1C-calcium-voltage Homo-sapiens_ENST00000643528.1_CACNA1C-calcium-voltage </t>
+  </si>
+  <si>
+    <t>ENSORLT00000003185.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000379565.9_RPS6KA3-ribosomal-prote </t>
+  </si>
+  <si>
+    <t>ENSORLT00000023647.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000299518.7_IDH3A-isocitrate-dehydr </t>
+  </si>
+  <si>
+    <t>ENSORLT00000007129.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000286548.9_GNAQ-G-protein-subunit- </t>
+  </si>
+  <si>
+    <t>ENSORLT00000004272.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000580825.5_PPP1R1B-protein-phospha </t>
+  </si>
+  <si>
+    <t>Homo-sapiens</t>
+  </si>
+  <si>
+    <t>ENSORLT00000007227.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000315758.10_MDH2-malate-dehydrogen </t>
+  </si>
+  <si>
+    <t>ENSORLT00000007755.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000264932.11_SDHA-succinate-dehydro Homo-sapiens_ENST00000651543.1_AC021087.5-novel-protei </t>
+  </si>
+  <si>
+    <t>ENSORLT00000021208.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000366560.4_FH-fumarate-hydratase </t>
+  </si>
+  <si>
+    <t>ENSORLT00000024666.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000345146.7_IDH1-isocitrate-dehydro </t>
+  </si>
+  <si>
+    <t>ENSORLT00000012526.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000510118.5_RPS6KA2-ribosomal-prote </t>
+  </si>
+  <si>
+    <t>ENSORLT00000000566.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000417551.5_DLD-dihydrolipoamide-de </t>
+  </si>
+  <si>
+    <t>ENSORLT00000003333.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000367975.7_SDHC-succinate-dehydrog </t>
+  </si>
+  <si>
+    <t>ENSORLT00000019362.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000007894.1</t>
+  </si>
+  <si>
     <t>Gallus-gallus</t>
   </si>
   <si>
-    <t>Teleostei(Eupercaria;Oryzias-latipes;Danio-rerio)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000008754.1</t>
-  </si>
-  <si>
-    <t>Xenopus-tropicalis</t>
-  </si>
-  <si>
-    <t>ENSORLT00000019724.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000272602.7_CNGA3-cyclic-nucleotide </t>
-  </si>
-  <si>
-    <t>ENSORLT00000025598.1</t>
-  </si>
-  <si>
-    <t>Teleostei(Percomorpha;Danio-rerio)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000001077.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000293190.10_GRIN2C-glutamate-ionot </t>
-  </si>
-  <si>
-    <t>ENSORLT00000013760.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000013837.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000638029.1_CACNA1A-calcium-voltage </t>
-  </si>
-  <si>
-    <t>ENSORLT00000011834.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000391997.3_PDC-phosducin </t>
-  </si>
-  <si>
-    <t>ENSORLT00000015501.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000005278.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000609686.4_GRIN2B-glutamate-ionotr </t>
-  </si>
-  <si>
-    <t>ENSORLT00000009670.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000448073.8_GRIA1-glutamate-ionotro </t>
-  </si>
-  <si>
-    <t>ENSORLT00000009862.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000218006.3_GUCY2F-guanylate-cyclas Homo-sapiens_ENST00000254854.5_GUCY2D-guanylate-cyclas </t>
-  </si>
-  <si>
-    <t>BonyVertebrates(Teleostei;Tetrapoda;BonyVertebrates;Gallus-gallus)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000017326.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000371355.8_CACNA1B-calcium-voltage </t>
-  </si>
-  <si>
-    <t>Teleostei(Eupercaria;Danio-rerio)</t>
-  </si>
-  <si>
-    <t>Percomorpha(Oryzias-latipes;Gasterosteus-aculeatus)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000017423.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000017805.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000018671.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000022931.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000375499.8_SDHB-succinate-dehydrog </t>
-  </si>
-  <si>
-    <t>ENSORLT00000000328.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000003094.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000013352.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000674920.1_ATF4-activating-transcr </t>
-  </si>
-  <si>
-    <t>ENSORLT00000021895.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000444676.5_OGDH-oxoglutarate-dehyd </t>
-  </si>
-  <si>
-    <t>ENSORLT00000017939.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000399634.5_CACNA1C-calcium-voltage Homo-sapiens_ENST00000643528.1_CACNA1C-calcium-voltage </t>
-  </si>
-  <si>
-    <t>ENSORLT00000003185.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000379565.9_RPS6KA3-ribosomal-prote </t>
-  </si>
-  <si>
-    <t>ENSORLT00000023647.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000299518.7_IDH3A-isocitrate-dehydr </t>
-  </si>
-  <si>
-    <t>ENSORLT00000007129.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000286548.9_GNAQ-G-protein-subunit- </t>
-  </si>
-  <si>
-    <t>ENSORLT00000004272.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000580825.5_PPP1R1B-protein-phospha </t>
-  </si>
-  <si>
-    <t>ENSORLT00000007227.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000315758.10_MDH2-malate-dehydrogen </t>
-  </si>
-  <si>
-    <t>ENSORLT00000007755.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000264932.11_SDHA-succinate-dehydro Homo-sapiens_ENST00000651543.1_AC021087.5-novel-protei </t>
-  </si>
-  <si>
-    <t>ENSORLT00000021208.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000366560.4_FH-fumarate-hydratase </t>
-  </si>
-  <si>
-    <t>ENSORLT00000024666.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000345146.7_IDH1-isocitrate-dehydro </t>
-  </si>
-  <si>
-    <t>ENSORLT00000012526.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000510118.5_RPS6KA2-ribosomal-prote </t>
-  </si>
-  <si>
-    <t>ENSORLT00000000566.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000417551.5_DLD-dihydrolipoamide-de </t>
-  </si>
-  <si>
-    <t>ENSORLT00000003333.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000367975.7_SDHC-succinate-dehydrog </t>
-  </si>
-  <si>
-    <t>ENSORLT00000019362.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000007894.1</t>
-  </si>
-  <si>
     <t>ENSORLT00000020424.2</t>
   </si>
   <si>
@@ -481,13 +493,10 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000533060.5_TRPM5-transient-recepto </t>
   </si>
   <si>
-    <t>Amniota</t>
-  </si>
-  <si>
     <t>ENSORLT00000001400.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000308595.10_GRK2-G-protein-coupled Homo-sapiens_ENST00000324198.11_GRK3-G-protein-coupled </t>
+    <t xml:space="preserve">Homo-sapiens_ENST00000324198.11_GRK3-G-protein-coupled </t>
   </si>
   <si>
     <t>ENSORLT00000010035.1</t>
@@ -544,9 +553,6 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000230361.4_GUCA1B-guanylate-cyclas </t>
   </si>
   <si>
-    <t>Homo-sapiens</t>
-  </si>
-  <si>
     <t>ENSORLT00000018055.1</t>
   </si>
   <si>
@@ -598,114 +604,96 @@
     <t>ENSORLT00000011525.1</t>
   </si>
   <si>
-    <t>BonyVertebrates(Tetrapoda;Percomorpha;Danio-rerio)</t>
-  </si>
-  <si>
     <t>ENSORLT00000005681.1</t>
   </si>
   <si>
     <t xml:space="preserve">Homo-sapiens_ENST00000305447.4_GRM5-glutamate-metabotr </t>
   </si>
   <si>
+    <t>ENSORLT00000013640.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000007953.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000373980.11_PRKG1-protein-kinase-c </t>
+  </si>
+  <si>
+    <t>ENSORLT00000005225.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000007195.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000371100.8_GNAS-GNAS-complex-locus </t>
+  </si>
+  <si>
+    <t>ENSORLT00000012701.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000375549.8_SDHD-succinate-dehydrog Homo-sapiens_ENST00000531744.5_AP002884.2-novel-transc </t>
+  </si>
+  <si>
+    <t>ENSORLT00000006418.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000006224.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000262948.10_MAP2K2-mitogen-activat Homo-sapiens_ENST00000467614.2_AC011005.1-novel-protei </t>
+  </si>
+  <si>
+    <t>ENSORLT00000024588.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000334049.11_GNAL-G-protein-subunit </t>
+  </si>
+  <si>
+    <t>ENSORLT00000020791.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000248150.5_GNG13-G-protein-subunit </t>
+  </si>
+  <si>
+    <t>ENSORLT00000021648.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000370685.7_PRKACB-protein-kinase-c </t>
+  </si>
+  <si>
+    <t>ENSORLT00000004679.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000010988.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000004504.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000610897.4_GNB1-G-protein-subunit- </t>
+  </si>
+  <si>
+    <t>ENSORLT00000022255.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000395578.3_PRKG2-protein-kinase-cG </t>
+  </si>
+  <si>
+    <t>ENSORLT00000023600.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000397596.6_HRAS-HRas-proto-oncogen Homo-sapiens_ENST00000631404.1_HRAS-HRas-proto-oncogen </t>
+  </si>
+  <si>
+    <t>ENSORLT00000021103.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000405392.5_ADCY3-adenylate-cyclase </t>
+  </si>
+  <si>
     <t>BonyVertebrates(Percomorpha;Danio-rerio;Tetrapoda)</t>
   </si>
   <si>
-    <t>ENSORLT00000013640.1</t>
-  </si>
-  <si>
-    <t>Teleostei</t>
-  </si>
-  <si>
-    <t>ENSORLT00000007953.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000373980.11_PRKG1-protein-kinase-c </t>
-  </si>
-  <si>
-    <t>BonyVertebrates(BonyVertebrates;Xenopus-tropicalis;Homo-sapiens)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000005225.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000007195.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000371100.8_GNAS-GNAS-complex-locus </t>
-  </si>
-  <si>
-    <t>ENSORLT00000012701.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000375549.8_SDHD-succinate-dehydrog Homo-sapiens_ENST00000531744.5_AP002884.2-novel-transc </t>
-  </si>
-  <si>
-    <t>ENSORLT00000006418.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000511664.6_CAMK2D-calcium-calmodul </t>
-  </si>
-  <si>
-    <t>ENSORLT00000006224.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000262948.10_MAP2K2-mitogen-activat Homo-sapiens_ENST00000467614.2_AC011005.1-novel-protei </t>
-  </si>
-  <si>
-    <t>ENSORLT00000024588.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000334049.11_GNAL-G-protein-subunit </t>
-  </si>
-  <si>
-    <t>BonyVertebrates(Teleostei;Tetrapoda)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000020791.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000248150.5_GNG13-G-protein-subunit </t>
-  </si>
-  <si>
-    <t>ENSORLT00000021648.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000370685.7_PRKACB-protein-kinase-c </t>
-  </si>
-  <si>
-    <t>BonyVertebrates(Tetrapoda;Danio-rerio)</t>
-  </si>
-  <si>
-    <t>ENSORLT00000004679.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000010988.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000004504.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000610897.4_GNB1-G-protein-subunit- </t>
-  </si>
-  <si>
-    <t>ENSORLT00000022255.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000395578.3_PRKG2-protein-kinase-cG </t>
-  </si>
-  <si>
-    <t>ENSORLT00000023600.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000397596.6_HRAS-HRas-proto-oncogen Homo-sapiens_ENST00000631404.1_HRAS-HRas-proto-oncogen </t>
-  </si>
-  <si>
-    <t>ENSORLT00000021103.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000405392.5_ADCY3-adenylate-cyclase </t>
-  </si>
-  <si>
     <t>ENSORLT00000016747.1</t>
   </si>
   <si>
@@ -718,6 +706,9 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000286355.10_ADCY8-adenylate-cyclas </t>
   </si>
   <si>
+    <t>Less than 4 orthogroup members.</t>
+  </si>
+  <si>
     <t>ENSORLT00000014319.1</t>
   </si>
   <si>
@@ -727,16 +718,13 @@
     <t>ENSORLT00000001204.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000374103.9_OGDHL-oxoglutarate-dehy Homo-sapiens_ENST00000444676.5_OGDH-oxoglutarate-dehyd </t>
-  </si>
-  <si>
     <t>ENSORLT00000011325.1</t>
   </si>
   <si>
     <t xml:space="preserve">Homo-sapiens_ENST00000310677.8_ADCY4-adenylate-cyclase Homo-sapiens_ENST00000338316.9_ADCY2-adenylate-cyclase Homo-sapiens_ENST00000394697.7_ADCY7-adenylate-cyclase Homo-sapiens_ENST00000644961.1_ADCY4-adenylate-cyclase </t>
   </si>
   <si>
-    <t>BonyVertebrates(BonyVertebrates;Tetrapoda)</t>
+    <t>BonyVertebrates(BonyVertebrates;Tetrapoda;Teleostei)</t>
   </si>
   <si>
     <t>ENSORLT00000004629.1</t>
@@ -757,55 +745,55 @@
     <t>ENSORLT00000011930.2</t>
   </si>
   <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000218006.3_GUCY2F-guanylate-cyclas </t>
+  </si>
+  <si>
     <t>ENSORLT00000014366.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000442415.7_RAF1-Raf-1-proto-oncoge </t>
+  </si>
+  <si>
+    <t>ENSORLT00000015021.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000263025.9_MAPK3-mitogen-activated </t>
+  </si>
+  <si>
+    <t>ENSORLT00000017486.1</t>
+  </si>
+  <si>
+    <t>ENSORLT00000020930.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homo-sapiens_ENST00000290277.10_ARAF-A-Raf-proto-oncog </t>
   </si>
   <si>
-    <t>ENSORLT00000015021.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000263025.9_MAPK3-mitogen-activated </t>
-  </si>
-  <si>
-    <t>ENSORLT00000017486.1</t>
-  </si>
-  <si>
-    <t>ENSORLT00000020930.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000442415.7_RAF1-Raf-1-proto-oncoge </t>
-  </si>
-  <si>
     <t>ENSORLT00000002504.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000312989.11_PPP1CA-protein-phospha </t>
+  </si>
+  <si>
     <t>ENSORLT00000007369.1</t>
   </si>
   <si>
     <t>ENSORLT00000008044.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000229264.8_GNB3-G-protein-subunit- </t>
+    <t>noOrthogroup_noKeynode</t>
   </si>
   <si>
     <t>ENSORLT00000013925.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000312989.11_PPP1CA-protein-phospha </t>
-  </si>
-  <si>
-    <t>Teleostei(Danio-rerio;Gasterosteus-aculeatus)</t>
-  </si>
-  <si>
     <t>ENSORLT00000016836.1</t>
   </si>
   <si>
     <t>ENSORLT00000017526.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000263253.9_EP300-E1A-binding-prote </t>
+    <t xml:space="preserve">Homo-sapiens_ENST00000399546.6_BRDT-bromodomain-testis </t>
   </si>
   <si>
     <t>ENSORLT00000002910.1</t>
@@ -838,16 +826,13 @@
     <t xml:space="preserve">Homo-sapiens_ENST00000395749.7_CAMK2B-calcium-calmodul </t>
   </si>
   <si>
-    <t>BonyVertebrates(Amniota;Tetraodon-nigroviridis)</t>
-  </si>
-  <si>
     <t>ENSORLT00000000766.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Homo-sapiens_ENST00000371741.6_KCNB1-potassium-voltage </t>
-  </si>
-  <si>
-    <t>BonyVertebrates(Xenopus-tropicalis;Tetraodon-nigroviridis;Danio-rerio)</t>
+    <t xml:space="preserve">Homo-sapiens_ENST00000371741.6_KCNB1-potassium-voltage Homo-sapiens_ENST00000523207.2_KCNB2-potassium-voltage </t>
+  </si>
+  <si>
+    <t>BonyVertebrates(Tetrapoda;Tetraodon-nigroviridis;Danio-rerio)</t>
   </si>
   <si>
     <t>ENSORLT00000021486.1</t>
@@ -859,13 +844,16 @@
     <t>ENSORLT00000006681.1</t>
   </si>
   <si>
-    <t>No_orthogroup</t>
-  </si>
-  <si>
     <t>ENSORLT00000007664.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000393868.7_SUCLG1-succinate-CoA-li </t>
+  </si>
+  <si>
     <t>ENSORLT00000017626.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo-sapiens_ENST00000643023.1_SUCLA2-succinate-CoA-li </t>
   </si>
   <si>
     <t>ENSORLT00000007944.1</t>
@@ -877,7 +865,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1537,39 +1525,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1621,7 +1609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1732,13 +1720,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1747,6 +1728,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1811,68 +1799,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0248CA63-9AF4-0747-98DA-71873841E1EE}">
   <dimension ref="A1:AL122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6200" ySplit="840" topLeftCell="AB1" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD14" sqref="AD14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="63.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
@@ -2004,7 +1967,7 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -2097,7 +2060,7 @@
         <v>47</v>
       </c>
       <c r="AJ2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK2" t="s">
         <v>48</v>
@@ -2120,7 +2083,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -2180,13 +2143,13 @@
         <v>41</v>
       </c>
       <c r="Y3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
         <v>42</v>
       </c>
       <c r="AA3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AB3" t="s">
         <v>41</v>
@@ -2219,7 +2182,7 @@
         <v>48</v>
       </c>
       <c r="AL3">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -2260,10 +2223,10 @@
         <v>3</v>
       </c>
       <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>5</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -2281,10 +2244,10 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -2296,13 +2259,13 @@
         <v>41</v>
       </c>
       <c r="Y4">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>53</v>
       </c>
       <c r="AB4" t="s">
         <v>42</v>
@@ -2329,13 +2292,13 @@
         <v>47</v>
       </c>
       <c r="AJ4">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL4">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -2343,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1176</v>
@@ -2376,10 +2339,10 @@
         <v>3</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>5</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -2397,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>2</v>
@@ -2412,7 +2375,7 @@
         <v>41</v>
       </c>
       <c r="Y5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
         <v>42</v>
@@ -2442,13 +2405,13 @@
         <v>100</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ5">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL5">
         <v>99</v>
@@ -2459,16 +2422,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2895</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -2519,25 +2482,25 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>100</v>
       </c>
       <c r="X6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6">
-        <v>91</v>
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
       </c>
       <c r="Z6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AB6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s">
         <v>43</v>
@@ -2552,22 +2515,22 @@
         <v>45</v>
       </c>
       <c r="AG6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>45</v>
       </c>
       <c r="AI6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="AL6">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -2575,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>1179</v>
@@ -2608,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>4</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -2644,13 +2607,13 @@
         <v>41</v>
       </c>
       <c r="Y7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z7" t="s">
         <v>42</v>
       </c>
       <c r="AA7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
         <v>42</v>
@@ -2676,14 +2639,14 @@
       <c r="AI7" t="s">
         <v>47</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7">
         <v>82</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL7">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2691,16 +2654,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1362</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -2760,7 +2723,7 @@
         <v>41</v>
       </c>
       <c r="Y8">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s">
         <v>42</v>
@@ -2790,16 +2753,16 @@
         <v>100</v>
       </c>
       <c r="AI8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AJ8">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL8">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2864,22 +2827,22 @@
         <v>2</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>100</v>
       </c>
       <c r="X9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA9">
         <v>100</v>
@@ -2894,16 +2857,16 @@
         <v>43</v>
       </c>
       <c r="AE9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="AF9">
+        <v>100</v>
       </c>
       <c r="AG9" t="s">
         <v>46</v>
       </c>
       <c r="AH9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AI9" t="s">
         <v>47</v>
@@ -2912,7 +2875,7 @@
         <v>100</v>
       </c>
       <c r="AK9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL9">
         <v>100</v>
@@ -2923,13 +2886,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>8319</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -2992,7 +2955,7 @@
         <v>41</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Z10" t="s">
         <v>42</v>
@@ -3028,10 +2991,10 @@
         <v>100</v>
       </c>
       <c r="AK10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL10">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -3039,13 +3002,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>8145</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -3108,7 +3071,7 @@
         <v>41</v>
       </c>
       <c r="Y11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z11" t="s">
         <v>42</v>
@@ -3141,7 +3104,7 @@
         <v>47</v>
       </c>
       <c r="AJ11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK11" t="s">
         <v>48</v>
@@ -3155,16 +3118,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>1515</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -3209,13 +3172,13 @@
         <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>100</v>
@@ -3233,7 +3196,7 @@
         <v>100</v>
       </c>
       <c r="AB12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC12" t="s">
         <v>43</v>
@@ -3260,10 +3223,10 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AL12">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -3271,16 +3234,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>2001</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -3325,13 +3288,13 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>2</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>100</v>
@@ -3340,7 +3303,7 @@
         <v>41</v>
       </c>
       <c r="Y13">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="Z13" t="s">
         <v>42</v>
@@ -3370,13 +3333,13 @@
         <v>100</v>
       </c>
       <c r="AI13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="AJ13">
+        <v>85</v>
       </c>
       <c r="AK13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL13">
         <v>100</v>
@@ -3387,16 +3350,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>1257</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>40</v>
@@ -3420,10 +3383,10 @@
         <v>7</v>
       </c>
       <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
         <v>8</v>
-      </c>
-      <c r="N14">
-        <v>7</v>
       </c>
       <c r="O14">
         <v>6</v>
@@ -3441,22 +3404,22 @@
         <v>2</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>2</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>100</v>
       </c>
       <c r="X14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y14">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>53</v>
       </c>
       <c r="Z14" t="s">
         <v>42</v>
@@ -3474,22 +3437,22 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF14">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>45</v>
       </c>
       <c r="AG14" t="s">
         <v>46</v>
       </c>
       <c r="AH14">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="AI14" t="s">
         <v>47</v>
       </c>
       <c r="AJ14">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK14" t="s">
         <v>48</v>
@@ -3503,13 +3466,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>2565</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -3578,7 +3541,7 @@
         <v>42</v>
       </c>
       <c r="AA15">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB15" t="s">
         <v>41</v>
@@ -3605,13 +3568,13 @@
         <v>47</v>
       </c>
       <c r="AJ15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s">
         <v>48</v>
       </c>
       <c r="AL15">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -3619,16 +3582,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>6894</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>40</v>
@@ -3673,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>100</v>
@@ -3735,16 +3698,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17">
         <v>1941</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>40</v>
@@ -3789,10 +3752,10 @@
         <v>2</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>2</v>
@@ -3801,20 +3764,20 @@
         <v>100</v>
       </c>
       <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17">
+        <v>97</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB17" t="s">
         <v>42</v>
       </c>
-      <c r="Y17">
-        <v>100</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA17">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>41</v>
-      </c>
       <c r="AC17" t="s">
         <v>43</v>
       </c>
@@ -3822,10 +3785,10 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF17">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>45</v>
       </c>
       <c r="AG17" t="s">
         <v>46</v>
@@ -3834,13 +3797,13 @@
         <v>100</v>
       </c>
       <c r="AI17" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AJ17">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL17">
         <v>100</v>
@@ -3857,7 +3820,7 @@
         <v>3510</v>
       </c>
       <c r="E18">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -3926,7 +3889,7 @@
         <v>100</v>
       </c>
       <c r="AB18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC18" t="s">
         <v>43</v>
@@ -3953,10 +3916,10 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AL18">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -3973,7 +3936,7 @@
         <v>86</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
         <v>40</v>
@@ -4018,13 +3981,13 @@
         <v>2</v>
       </c>
       <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>100</v>
@@ -4066,7 +4029,7 @@
         <v>47</v>
       </c>
       <c r="AJ19">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s">
         <v>48</v>
@@ -4089,7 +4052,7 @@
         <v>86</v>
       </c>
       <c r="E20">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -4134,13 +4097,13 @@
         <v>2</v>
       </c>
       <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
         <v>3</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>100</v>
@@ -4185,7 +4148,7 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL20">
         <v>100</v>
@@ -4205,7 +4168,7 @@
         <v>90</v>
       </c>
       <c r="E21">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>40</v>
@@ -4271,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="AA21">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AB21" t="s">
         <v>42</v>
@@ -4301,10 +4264,10 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL21">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -4437,7 +4400,7 @@
         <v>93</v>
       </c>
       <c r="E23">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
@@ -4482,10 +4445,10 @@
         <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -4553,7 +4516,7 @@
         <v>95</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>40</v>
@@ -4577,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
         <v>4</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -4598,10 +4561,10 @@
         <v>2</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>2</v>
@@ -4646,13 +4609,13 @@
         <v>47</v>
       </c>
       <c r="AJ24">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL24">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:38">
@@ -4665,8 +4628,11 @@
       <c r="C25">
         <v>3576</v>
       </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
       <c r="E25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
@@ -4702,10 +4668,10 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -4723,7 +4689,7 @@
         <v>100</v>
       </c>
       <c r="X25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y25">
         <v>100</v>
@@ -4744,10 +4710,10 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="AF25">
+        <v>100</v>
       </c>
       <c r="AG25" t="s">
         <v>84</v>
@@ -4773,16 +4739,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>4767</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -4830,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>2</v>
@@ -4839,13 +4805,13 @@
         <v>100</v>
       </c>
       <c r="X26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y26">
         <v>100</v>
       </c>
       <c r="Z26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA26">
         <v>100</v>
@@ -4860,13 +4826,13 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="AF26">
+        <v>100</v>
       </c>
       <c r="AG26" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AH26">
         <v>100</v>
@@ -4889,13 +4855,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C27">
         <v>2793</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -4943,10 +4909,10 @@
         <v>2</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -4994,10 +4960,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL27">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -5005,16 +4971,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>3381</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>40</v>
@@ -5047,31 +5013,31 @@
         <v>10</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>100</v>
       </c>
       <c r="X28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y28">
         <v>100</v>
@@ -5092,16 +5058,16 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF28">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>45</v>
       </c>
       <c r="AG28" t="s">
         <v>46</v>
       </c>
       <c r="AH28">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AI28" t="s">
         <v>47</v>
@@ -5121,16 +5087,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>4179</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>40</v>
@@ -5175,10 +5141,10 @@
         <v>2</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>2</v>
@@ -5196,7 +5162,7 @@
         <v>42</v>
       </c>
       <c r="AA29">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB29" t="s">
         <v>42</v>
@@ -5220,16 +5186,16 @@
         <v>100</v>
       </c>
       <c r="AI29" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AJ29">
         <v>100</v>
       </c>
       <c r="AK29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL29">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:38">
@@ -5237,7 +5203,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30">
         <v>780</v>
@@ -5246,7 +5212,7 @@
         <v>95</v>
       </c>
       <c r="E30">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>40</v>
@@ -5270,10 +5236,10 @@
         <v>4</v>
       </c>
       <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
         <v>4</v>
-      </c>
-      <c r="N30">
-        <v>3</v>
       </c>
       <c r="O30">
         <v>4</v>
@@ -5291,10 +5257,10 @@
         <v>2</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>2</v>
@@ -5339,10 +5305,10 @@
         <v>47</v>
       </c>
       <c r="AJ30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL30">
         <v>100</v>
@@ -5353,13 +5319,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C31">
         <v>3624</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -5458,10 +5424,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL31">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -5469,13 +5435,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32">
         <v>4845</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -5547,7 +5513,7 @@
         <v>100</v>
       </c>
       <c r="AB32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC32" t="s">
         <v>43</v>
@@ -5571,13 +5537,13 @@
         <v>47</v>
       </c>
       <c r="AJ32">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AK32" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AL32">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:38">
@@ -5585,13 +5551,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C33">
         <v>852</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -5654,13 +5620,13 @@
         <v>41</v>
       </c>
       <c r="Y33">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s">
         <v>42</v>
       </c>
       <c r="AA33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB33" t="s">
         <v>41</v>
@@ -5687,13 +5653,13 @@
         <v>47</v>
       </c>
       <c r="AJ33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK33" t="s">
         <v>48</v>
       </c>
       <c r="AL33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:38">
@@ -5701,16 +5667,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>843</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -5770,13 +5736,13 @@
         <v>41</v>
       </c>
       <c r="Y34">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s">
         <v>42</v>
       </c>
       <c r="AA34">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AB34" t="s">
         <v>41</v>
@@ -5803,13 +5769,13 @@
         <v>47</v>
       </c>
       <c r="AJ34" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK34" t="s">
         <v>48</v>
       </c>
       <c r="AL34">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -5817,13 +5783,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>2769</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
         <v>40</v>
@@ -5883,16 +5849,16 @@
         <v>41</v>
       </c>
       <c r="Y35">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Z35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AB35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s">
         <v>43</v>
@@ -5913,16 +5879,16 @@
         <v>100</v>
       </c>
       <c r="AI35" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="AJ35">
+        <v>98</v>
       </c>
       <c r="AK35" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL35">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -5930,16 +5896,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C36">
         <v>1125</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -5963,10 +5929,10 @@
         <v>8</v>
       </c>
       <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
         <v>8</v>
-      </c>
-      <c r="N36">
-        <v>9</v>
       </c>
       <c r="O36">
         <v>9</v>
@@ -5999,16 +5965,16 @@
         <v>41</v>
       </c>
       <c r="Y36">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s">
         <v>42</v>
       </c>
       <c r="AA36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s">
         <v>43</v>
@@ -6032,13 +5998,13 @@
         <v>47</v>
       </c>
       <c r="AJ36">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL36">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -6046,16 +6012,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C37">
         <v>2847</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E37">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -6114,11 +6080,11 @@
       <c r="X37" t="s">
         <v>41</v>
       </c>
-      <c r="Y37">
-        <v>97</v>
+      <c r="Y37" t="s">
+        <v>53</v>
       </c>
       <c r="Z37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA37">
         <v>100</v>
@@ -6147,8 +6113,8 @@
       <c r="AI37" t="s">
         <v>47</v>
       </c>
-      <c r="AJ37">
-        <v>78</v>
+      <c r="AJ37" t="s">
+        <v>53</v>
       </c>
       <c r="AK37" t="s">
         <v>48</v>
@@ -6162,13 +6128,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38">
         <v>5829</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -6264,10 +6230,10 @@
         <v>47</v>
       </c>
       <c r="AJ38">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AK38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL38">
         <v>100</v>
@@ -6278,16 +6244,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C39">
         <v>2151</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E39">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -6332,11 +6298,11 @@
         <v>2</v>
       </c>
       <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
       <c r="V39">
         <v>1</v>
       </c>
@@ -6347,13 +6313,13 @@
         <v>41</v>
       </c>
       <c r="Y39">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Z39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA39">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB39" t="s">
         <v>41</v>
@@ -6380,13 +6346,13 @@
         <v>47</v>
       </c>
       <c r="AJ39">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AK39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL39">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:38">
@@ -6394,13 +6360,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C40">
         <v>1110</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -6427,10 +6393,10 @@
         <v>4</v>
       </c>
       <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
         <v>7</v>
-      </c>
-      <c r="N40">
-        <v>5</v>
       </c>
       <c r="O40">
         <v>6</v>
@@ -6463,13 +6429,13 @@
         <v>41</v>
       </c>
       <c r="Y40">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s">
         <v>41</v>
       </c>
       <c r="AA40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB40" t="s">
         <v>41</v>
@@ -6496,13 +6462,13 @@
         <v>47</v>
       </c>
       <c r="AJ40">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AK40" t="s">
         <v>48</v>
       </c>
       <c r="AL40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:38">
@@ -6510,16 +6476,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C41">
         <v>1074</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
         <v>40</v>
@@ -6579,13 +6545,13 @@
         <v>41</v>
       </c>
       <c r="Y41">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Z41" t="s">
         <v>41</v>
       </c>
       <c r="AA41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB41" t="s">
         <v>41</v>
@@ -6612,13 +6578,13 @@
         <v>47</v>
       </c>
       <c r="AJ41">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s">
         <v>48</v>
       </c>
       <c r="AL41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:38">
@@ -6626,13 +6592,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>495</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E42">
         <v>99</v>
@@ -6671,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42">
         <v>1</v>
@@ -6692,19 +6658,19 @@
         <v>100</v>
       </c>
       <c r="X42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y42">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Z42" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="AA42">
+        <v>73</v>
       </c>
       <c r="AB42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s">
         <v>43</v>
@@ -6713,28 +6679,28 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="AF42">
+        <v>100</v>
       </c>
       <c r="AG42" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AH42">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s">
         <v>47</v>
       </c>
       <c r="AJ42">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL42">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:38">
@@ -6742,13 +6708,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C43">
         <v>1014</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -6811,13 +6777,13 @@
         <v>41</v>
       </c>
       <c r="Y43">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Z43" t="s">
         <v>41</v>
       </c>
       <c r="AA43">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AB43" t="s">
         <v>41</v>
@@ -6844,13 +6810,13 @@
         <v>47</v>
       </c>
       <c r="AJ43">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s">
         <v>48</v>
       </c>
       <c r="AL43">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -6858,16 +6824,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C44">
         <v>2031</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E44">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -6927,13 +6893,13 @@
         <v>41</v>
       </c>
       <c r="Y44">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z44" t="s">
         <v>41</v>
       </c>
       <c r="AA44">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB44" t="s">
         <v>41</v>
@@ -6960,13 +6926,13 @@
         <v>47</v>
       </c>
       <c r="AJ44">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s">
         <v>48</v>
       </c>
       <c r="AL44">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -6974,16 +6940,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C45">
         <v>1500</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E45">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
         <v>40</v>
@@ -7007,10 +6973,10 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -7028,11 +6994,11 @@
         <v>2</v>
       </c>
       <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
       <c r="V45">
         <v>1</v>
       </c>
@@ -7043,7 +7009,7 @@
         <v>41</v>
       </c>
       <c r="Y45">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z45" t="s">
         <v>41</v>
@@ -7076,10 +7042,10 @@
         <v>47</v>
       </c>
       <c r="AJ45">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL45">
         <v>100</v>
@@ -7090,16 +7056,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C46">
         <v>1149</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E46" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="E46">
+        <v>89</v>
       </c>
       <c r="F46" t="s">
         <v>40</v>
@@ -7159,13 +7125,13 @@
         <v>41</v>
       </c>
       <c r="Y46">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z46" t="s">
         <v>41</v>
       </c>
       <c r="AA46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB46" t="s">
         <v>42</v>
@@ -7192,13 +7158,13 @@
         <v>47</v>
       </c>
       <c r="AJ46">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL46">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:38">
@@ -7206,16 +7172,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C47">
         <v>2151</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E47">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s">
         <v>40</v>
@@ -7322,13 +7288,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C48">
         <v>1194</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -7355,10 +7321,10 @@
         <v>8</v>
       </c>
       <c r="M48">
+        <v>6</v>
+      </c>
+      <c r="N48">
         <v>7</v>
-      </c>
-      <c r="N48">
-        <v>6</v>
       </c>
       <c r="O48">
         <v>6</v>
@@ -7391,13 +7357,13 @@
         <v>41</v>
       </c>
       <c r="Y48">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Z48" t="s">
         <v>41</v>
       </c>
       <c r="AA48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB48" t="s">
         <v>41</v>
@@ -7424,13 +7390,13 @@
         <v>47</v>
       </c>
       <c r="AJ48">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s">
         <v>48</v>
       </c>
       <c r="AL48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -7438,13 +7404,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C49">
         <v>519</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -7507,13 +7473,13 @@
         <v>41</v>
       </c>
       <c r="Y49">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Z49" t="s">
         <v>41</v>
       </c>
       <c r="AA49">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB49" t="s">
         <v>42</v>
@@ -7540,10 +7506,10 @@
         <v>47</v>
       </c>
       <c r="AJ49">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL49">
         <v>99</v>
@@ -7554,13 +7520,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C50">
         <v>1410</v>
       </c>
       <c r="E50">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
         <v>40</v>
@@ -7626,7 +7592,7 @@
         <v>41</v>
       </c>
       <c r="AA50">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AB50" t="s">
         <v>41</v>
@@ -7659,7 +7625,7 @@
         <v>48</v>
       </c>
       <c r="AL50">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -7667,13 +7633,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C51">
         <v>1941</v>
       </c>
       <c r="E51">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>40</v>
@@ -7739,7 +7705,7 @@
         <v>41</v>
       </c>
       <c r="AA51">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AB51" t="s">
         <v>42</v>
@@ -7757,7 +7723,7 @@
         <v>45</v>
       </c>
       <c r="AG51" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AH51">
         <v>100</v>
@@ -7769,10 +7735,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL51">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -7780,13 +7746,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C52">
         <v>3087</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E52">
         <v>98</v>
@@ -7855,7 +7821,7 @@
         <v>41</v>
       </c>
       <c r="AA52">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="s">
         <v>42</v>
@@ -7885,10 +7851,10 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL52">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:38">
@@ -7896,16 +7862,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>1185</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s">
         <v>40</v>
@@ -7971,7 +7937,7 @@
         <v>41</v>
       </c>
       <c r="AA53">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB53" t="s">
         <v>41</v>
@@ -8004,7 +7970,7 @@
         <v>48</v>
       </c>
       <c r="AL53">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38">
@@ -8012,16 +7978,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C54">
         <v>1077</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E54">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
         <v>40</v>
@@ -8128,16 +8094,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C55">
         <v>3276</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
         <v>40</v>
@@ -8221,7 +8187,7 @@
         <v>45</v>
       </c>
       <c r="AG55" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AH55">
         <v>100</v>
@@ -8244,16 +8210,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>1800</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E56">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
         <v>40</v>
@@ -8286,13 +8252,13 @@
         <v>10</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -8301,10 +8267,10 @@
         <v>1</v>
       </c>
       <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56">
         <v>0</v>
-      </c>
-      <c r="V56">
-        <v>1</v>
       </c>
       <c r="W56">
         <v>100</v>
@@ -8319,7 +8285,7 @@
         <v>41</v>
       </c>
       <c r="AA56">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB56" t="s">
         <v>41</v>
@@ -8331,16 +8297,16 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="AF56">
         <v>100</v>
       </c>
       <c r="AG56" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="AH56">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s">
         <v>47</v>
@@ -8349,10 +8315,10 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL56">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:38">
@@ -8360,13 +8326,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C57">
         <v>1152</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -8393,10 +8359,10 @@
         <v>2</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>2</v>
@@ -8435,7 +8401,7 @@
         <v>41</v>
       </c>
       <c r="AA57">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB57" t="s">
         <v>41</v>
@@ -8468,7 +8434,7 @@
         <v>48</v>
       </c>
       <c r="AL57">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:38">
@@ -8476,13 +8442,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C58">
         <v>1170</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -8509,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
         <v>5</v>
-      </c>
-      <c r="N58">
-        <v>3</v>
       </c>
       <c r="O58">
         <v>4</v>
@@ -8551,7 +8517,7 @@
         <v>41</v>
       </c>
       <c r="AA58">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB58" t="s">
         <v>41</v>
@@ -8584,7 +8550,7 @@
         <v>48</v>
       </c>
       <c r="AL58">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:38">
@@ -8592,13 +8558,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C59">
         <v>2109</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -8708,13 +8674,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C60">
         <v>2304</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -8777,16 +8743,16 @@
         <v>41</v>
       </c>
       <c r="Y60">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Z60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA60" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="AB60" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC60" t="s">
         <v>43</v>
@@ -8807,16 +8773,16 @@
         <v>100</v>
       </c>
       <c r="AI60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ60">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>45</v>
       </c>
       <c r="AK60" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="AL60">
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -8824,16 +8790,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C61">
         <v>1725</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E61">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
         <v>40</v>
@@ -8940,13 +8906,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C62">
         <v>1020</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -8973,10 +8939,10 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -8994,10 +8960,10 @@
         <v>1</v>
       </c>
       <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
         <v>0</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -9045,7 +9011,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL62">
         <v>100</v>
@@ -9056,13 +9022,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <v>7233</v>
       </c>
       <c r="D63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -9172,16 +9138,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C64">
         <v>1872</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E64">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
         <v>40</v>
@@ -9247,7 +9213,7 @@
         <v>41</v>
       </c>
       <c r="AA64">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB64" t="s">
         <v>41</v>
@@ -9280,7 +9246,7 @@
         <v>48</v>
       </c>
       <c r="AL64">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:38">
@@ -9288,16 +9254,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C65">
         <v>594</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
         <v>40</v>
@@ -9362,8 +9328,8 @@
       <c r="Z65" t="s">
         <v>41</v>
       </c>
-      <c r="AA65">
-        <v>75</v>
+      <c r="AA65" t="s">
+        <v>53</v>
       </c>
       <c r="AB65" t="s">
         <v>42</v>
@@ -9375,7 +9341,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AF65">
         <v>100</v>
@@ -9393,10 +9359,10 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL65">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -9404,13 +9370,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C66">
         <v>2199</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -9520,13 +9486,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C67">
         <v>2670</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -9598,7 +9564,7 @@
         <v>99</v>
       </c>
       <c r="AB67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC67" t="s">
         <v>43</v>
@@ -9625,10 +9591,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL67">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -9636,16 +9602,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C68">
         <v>7818</v>
       </c>
       <c r="D68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
         <v>40</v>
@@ -9714,7 +9680,7 @@
         <v>100</v>
       </c>
       <c r="AB68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC68" t="s">
         <v>43</v>
@@ -9729,7 +9695,7 @@
         <v>45</v>
       </c>
       <c r="AG68" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AH68">
         <v>100</v>
@@ -9741,10 +9707,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AL68">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -9752,13 +9718,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69">
         <v>2739</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -9785,10 +9751,10 @@
         <v>3</v>
       </c>
       <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
         <v>4</v>
-      </c>
-      <c r="N69">
-        <v>3</v>
       </c>
       <c r="O69">
         <v>3</v>
@@ -9821,13 +9787,13 @@
         <v>41</v>
       </c>
       <c r="Y69">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="Z69" t="s">
         <v>41</v>
       </c>
-      <c r="AA69">
-        <v>91</v>
+      <c r="AA69" t="s">
+        <v>53</v>
       </c>
       <c r="AB69" t="s">
         <v>42</v>
@@ -9854,13 +9820,13 @@
         <v>47</v>
       </c>
       <c r="AJ69">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="AK69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL69">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:38">
@@ -9868,16 +9834,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C70">
         <v>1542</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E70">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
@@ -9937,7 +9903,7 @@
         <v>41</v>
       </c>
       <c r="Y70">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Z70" t="s">
         <v>41</v>
@@ -9970,7 +9936,7 @@
         <v>47</v>
       </c>
       <c r="AJ70">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AK70" t="s">
         <v>48</v>
@@ -9984,16 +9950,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C71">
         <v>972</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E71">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
         <v>40</v>
@@ -10053,7 +10019,7 @@
         <v>41</v>
       </c>
       <c r="Y71">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s">
         <v>41</v>
@@ -10062,7 +10028,7 @@
         <v>100</v>
       </c>
       <c r="AB71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC71" t="s">
         <v>43</v>
@@ -10086,13 +10052,13 @@
         <v>47</v>
       </c>
       <c r="AJ71">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AK71" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL71">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:38">
@@ -10100,13 +10066,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C72">
         <v>588</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -10168,14 +10134,14 @@
       <c r="X72" t="s">
         <v>41</v>
       </c>
-      <c r="Y72">
-        <v>75</v>
+      <c r="Y72" t="s">
+        <v>53</v>
       </c>
       <c r="Z72" t="s">
         <v>41</v>
       </c>
       <c r="AA72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB72" t="s">
         <v>41</v>
@@ -10201,14 +10167,14 @@
       <c r="AI72" t="s">
         <v>47</v>
       </c>
-      <c r="AJ72">
-        <v>75</v>
+      <c r="AJ72" t="s">
+        <v>53</v>
       </c>
       <c r="AK72" t="s">
         <v>48</v>
       </c>
       <c r="AL72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:38">
@@ -10216,16 +10182,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C73">
         <v>2904</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
@@ -10270,13 +10236,13 @@
         <v>2</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U73">
         <v>1</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W73">
         <v>100</v>
@@ -10285,7 +10251,7 @@
         <v>42</v>
       </c>
       <c r="Y73">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z73" t="s">
         <v>41</v>
@@ -10303,7 +10269,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF73">
         <v>100</v>
@@ -10312,16 +10278,16 @@
         <v>46</v>
       </c>
       <c r="AH73">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s">
         <v>47</v>
       </c>
       <c r="AJ73">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL73">
         <v>100</v>
@@ -10332,7 +10298,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C74">
         <v>3910</v>
@@ -10341,7 +10307,7 @@
         <v>65</v>
       </c>
       <c r="E74">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -10389,22 +10355,22 @@
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W74">
         <v>100</v>
       </c>
       <c r="X74" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y74">
+        <v>95</v>
+      </c>
+      <c r="Z74" t="s">
         <v>42</v>
-      </c>
-      <c r="Y74">
-        <v>99</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>41</v>
       </c>
       <c r="AA74">
         <v>100</v>
@@ -10425,7 +10391,7 @@
         <v>45</v>
       </c>
       <c r="AG74" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="AH74">
         <v>100</v>
@@ -10434,10 +10400,10 @@
         <v>47</v>
       </c>
       <c r="AJ74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL74">
         <v>100</v>
@@ -10448,13 +10414,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75">
         <v>3642</v>
       </c>
       <c r="D75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -10502,10 +10468,10 @@
         <v>2</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V75">
         <v>2</v>
@@ -10514,13 +10480,13 @@
         <v>100</v>
       </c>
       <c r="X75" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y75">
+        <v>80</v>
+      </c>
+      <c r="Z75" t="s">
         <v>42</v>
-      </c>
-      <c r="Y75">
-        <v>99</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>41</v>
       </c>
       <c r="AA75">
         <v>100</v>
@@ -10541,7 +10507,7 @@
         <v>45</v>
       </c>
       <c r="AG75" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="AH75">
         <v>100</v>
@@ -10550,13 +10516,13 @@
         <v>47</v>
       </c>
       <c r="AJ75">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL75">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:38">
@@ -10570,7 +10536,7 @@
         <v>3690</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -10618,10 +10584,10 @@
         <v>2</v>
       </c>
       <c r="T76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V76">
         <v>2</v>
@@ -10630,14 +10596,14 @@
         <v>100</v>
       </c>
       <c r="X76" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y76">
+        <v>100</v>
+      </c>
+      <c r="Z76" t="s">
         <v>42</v>
       </c>
-      <c r="Y76">
-        <v>98</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>41</v>
-      </c>
       <c r="AA76">
         <v>100</v>
       </c>
@@ -10651,10 +10617,10 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF76">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>45</v>
       </c>
       <c r="AG76" t="s">
         <v>46</v>
@@ -10666,10 +10632,10 @@
         <v>47</v>
       </c>
       <c r="AJ76">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL76">
         <v>100</v>
@@ -10680,16 +10646,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77">
         <v>2055</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
         <v>40</v>
@@ -10746,19 +10712,19 @@
         <v>100</v>
       </c>
       <c r="X77" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z77" t="s">
         <v>42</v>
       </c>
-      <c r="Y77">
-        <v>99</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>41</v>
-      </c>
       <c r="AA77">
         <v>100</v>
       </c>
       <c r="AB77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC77" t="s">
         <v>43</v>
@@ -10773,7 +10739,7 @@
         <v>45</v>
       </c>
       <c r="AG77" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AH77">
         <v>100</v>
@@ -10782,13 +10748,13 @@
         <v>47</v>
       </c>
       <c r="AJ77">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL77">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:38">
@@ -10796,16 +10762,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C78">
         <v>1680</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -10850,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U78">
         <v>2</v>
@@ -10862,16 +10828,16 @@
         <v>100</v>
       </c>
       <c r="X78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y78">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Z78" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="AA78">
+        <v>100</v>
       </c>
       <c r="AB78" t="s">
         <v>42</v>
@@ -10883,28 +10849,28 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="AF78">
+        <v>100</v>
       </c>
       <c r="AG78" t="s">
         <v>46</v>
       </c>
       <c r="AH78">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI78" t="s">
         <v>47</v>
       </c>
       <c r="AJ78">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="AK78" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="AL78">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:38">
@@ -10912,13 +10878,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79">
         <v>1197</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E79">
         <v>96</v>
@@ -10981,13 +10947,13 @@
         <v>42</v>
       </c>
       <c r="Y79">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z79" t="s">
         <v>41</v>
       </c>
       <c r="AA79" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB79" t="s">
         <v>42</v>
@@ -10999,7 +10965,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AF79">
         <v>100</v>
@@ -11008,13 +10974,13 @@
         <v>84</v>
       </c>
       <c r="AH79">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s">
         <v>47</v>
       </c>
       <c r="AJ79">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AK79" t="s">
         <v>48</v>
@@ -11028,16 +10994,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80">
         <v>672</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E80">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F80" t="s">
         <v>40</v>
@@ -11061,11 +11027,11 @@
         <v>2</v>
       </c>
       <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
         <v>0</v>
       </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
       <c r="O80">
         <v>1</v>
       </c>
@@ -11079,17 +11045,17 @@
         <v>2</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T80">
         <v>1</v>
       </c>
       <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
         <v>0</v>
       </c>
-      <c r="V80">
-        <v>1</v>
-      </c>
       <c r="W80">
         <v>100</v>
       </c>
@@ -11097,13 +11063,13 @@
         <v>41</v>
       </c>
       <c r="Y80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z80" t="s">
         <v>41</v>
       </c>
       <c r="AA80">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="AB80" t="s">
         <v>41</v>
@@ -11130,13 +11096,13 @@
         <v>47</v>
       </c>
       <c r="AJ80" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL80">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:38">
@@ -11144,16 +11110,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81">
         <v>1473</v>
       </c>
-      <c r="D81" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81">
-        <v>74</v>
+      <c r="E81" t="s">
+        <v>53</v>
       </c>
       <c r="F81" t="s">
         <v>40</v>
@@ -11192,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81">
         <v>2</v>
@@ -11213,13 +11176,13 @@
         <v>41</v>
       </c>
       <c r="Y81" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z81" t="s">
         <v>42</v>
       </c>
       <c r="AA81">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB81" t="s">
         <v>42</v>
@@ -11246,13 +11209,13 @@
         <v>47</v>
       </c>
       <c r="AJ81">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL81">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:38">
@@ -11260,16 +11223,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C82">
         <v>1194</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E82">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
         <v>40</v>
@@ -11317,10 +11280,10 @@
         <v>1</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W82">
         <v>100</v>
@@ -11328,14 +11291,14 @@
       <c r="X82" t="s">
         <v>41</v>
       </c>
-      <c r="Y82" t="s">
-        <v>59</v>
+      <c r="Y82">
+        <v>96</v>
       </c>
       <c r="Z82" t="s">
         <v>42</v>
       </c>
       <c r="AA82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB82" t="s">
         <v>41</v>
@@ -11353,7 +11316,7 @@
         <v>45</v>
       </c>
       <c r="AG82" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AH82">
         <v>100</v>
@@ -11362,13 +11325,13 @@
         <v>47</v>
       </c>
       <c r="AJ82">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s">
         <v>48</v>
       </c>
       <c r="AL82">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:38">
@@ -11376,16 +11339,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C83">
         <v>1191</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E83">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -11445,10 +11408,10 @@
         <v>42</v>
       </c>
       <c r="Y83" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA83">
         <v>100</v>
@@ -11463,22 +11426,22 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="AF83">
         <v>100</v>
       </c>
       <c r="AG83" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="AH83">
+        <v>91</v>
       </c>
       <c r="AI83" t="s">
         <v>47</v>
       </c>
       <c r="AJ83" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK83" t="s">
         <v>48</v>
@@ -11492,16 +11455,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C84">
         <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E84">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F84" t="s">
         <v>40</v>
@@ -11525,10 +11488,10 @@
         <v>10</v>
       </c>
       <c r="M84">
+        <v>7</v>
+      </c>
+      <c r="N84">
         <v>8</v>
-      </c>
-      <c r="N84">
-        <v>7</v>
       </c>
       <c r="O84">
         <v>5</v>
@@ -11549,10 +11512,10 @@
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W84">
         <v>100</v>
@@ -11561,13 +11524,13 @@
         <v>41</v>
       </c>
       <c r="Y84" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z84" t="s">
         <v>41</v>
       </c>
       <c r="AA84" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB84" t="s">
         <v>42</v>
@@ -11594,13 +11557,13 @@
         <v>47</v>
       </c>
       <c r="AJ84" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL84">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:38">
@@ -11608,16 +11571,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C85">
         <v>1056</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E85">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s">
         <v>40</v>
@@ -11677,13 +11640,13 @@
         <v>42</v>
       </c>
       <c r="Y85" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z85" t="s">
         <v>41</v>
       </c>
       <c r="AA85" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB85" t="s">
         <v>42</v>
@@ -11701,7 +11664,7 @@
         <v>45</v>
       </c>
       <c r="AG85" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="AH85">
         <v>100</v>
@@ -11710,13 +11673,13 @@
         <v>47</v>
       </c>
       <c r="AJ85" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK85" t="s">
         <v>48</v>
       </c>
       <c r="AL85">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:38">
@@ -11724,16 +11687,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C86">
         <v>1191</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E86">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
         <v>40</v>
@@ -11793,13 +11756,13 @@
         <v>42</v>
       </c>
       <c r="Y86" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA86" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB86" t="s">
         <v>41</v>
@@ -11811,28 +11774,28 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="AF86">
         <v>100</v>
       </c>
       <c r="AG86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="AH86">
+        <v>92</v>
       </c>
       <c r="AI86" t="s">
         <v>47</v>
       </c>
-      <c r="AJ86" t="s">
-        <v>59</v>
+      <c r="AJ86">
+        <v>73</v>
       </c>
       <c r="AK86" t="s">
         <v>48</v>
       </c>
       <c r="AL86" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:38">
@@ -11840,16 +11803,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C87">
         <v>204</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E87">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F87" t="s">
         <v>40</v>
@@ -11873,10 +11836,10 @@
         <v>9</v>
       </c>
       <c r="M87">
+        <v>6</v>
+      </c>
+      <c r="N87">
         <v>7</v>
-      </c>
-      <c r="N87">
-        <v>6</v>
       </c>
       <c r="O87">
         <v>3</v>
@@ -11897,10 +11860,10 @@
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W87">
         <v>100</v>
@@ -11909,13 +11872,13 @@
         <v>41</v>
       </c>
       <c r="Y87" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z87" t="s">
         <v>41</v>
       </c>
       <c r="AA87" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB87" t="s">
         <v>42</v>
@@ -11942,13 +11905,13 @@
         <v>47</v>
       </c>
       <c r="AJ87" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK87" t="s">
         <v>48</v>
       </c>
       <c r="AL87">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -11956,16 +11919,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C88">
         <v>1023</v>
       </c>
       <c r="D88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E88">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F88" t="s">
         <v>40</v>
@@ -12010,13 +11973,13 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U88">
         <v>2</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>100</v>
@@ -12025,13 +11988,13 @@
         <v>41</v>
       </c>
       <c r="Y88" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z88" t="s">
         <v>42</v>
       </c>
       <c r="AA88">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AB88" t="s">
         <v>42</v>
@@ -12058,13 +12021,13 @@
         <v>47</v>
       </c>
       <c r="AJ88" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL88">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:38">
@@ -12072,16 +12035,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89">
         <v>2307</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E89">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
         <v>40</v>
@@ -12126,11 +12089,11 @@
         <v>1</v>
       </c>
       <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
         <v>0</v>
       </c>
-      <c r="U89">
-        <v>1</v>
-      </c>
       <c r="V89">
         <v>1</v>
       </c>
@@ -12138,13 +12101,13 @@
         <v>100</v>
       </c>
       <c r="X89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y89" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Z89" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA89">
         <v>100</v>
@@ -12165,19 +12128,19 @@
         <v>45</v>
       </c>
       <c r="AG89" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH89">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>45</v>
       </c>
       <c r="AI89" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ89" t="s">
-        <v>59</v>
+        <v>102</v>
+      </c>
+      <c r="AJ89">
+        <v>100</v>
       </c>
       <c r="AK89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL89">
         <v>100</v>
@@ -12188,16 +12151,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C90">
         <v>570</v>
       </c>
       <c r="D90" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E90">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F90" t="s">
         <v>40</v>
@@ -12254,16 +12217,16 @@
         <v>100</v>
       </c>
       <c r="X90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y90" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z90" t="s">
         <v>41</v>
       </c>
       <c r="AA90" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB90" t="s">
         <v>41</v>
@@ -12275,28 +12238,28 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF90">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>45</v>
       </c>
       <c r="AG90" t="s">
         <v>46</v>
       </c>
       <c r="AH90">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AI90" t="s">
         <v>47</v>
       </c>
       <c r="AJ90" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK90" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL90" t="s">
         <v>53</v>
-      </c>
-      <c r="AL90" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:38">
@@ -12304,13 +12267,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C91">
         <v>3408</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -12373,7 +12336,7 @@
         <v>42</v>
       </c>
       <c r="Y91" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z91" t="s">
         <v>41</v>
@@ -12397,7 +12360,7 @@
         <v>45</v>
       </c>
       <c r="AG91" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AH91">
         <v>100</v>
@@ -12406,7 +12369,7 @@
         <v>47</v>
       </c>
       <c r="AJ91" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK91" t="s">
         <v>48</v>
@@ -12420,16 +12383,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C92">
         <v>984</v>
       </c>
       <c r="D92" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E92">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>
@@ -12477,10 +12440,10 @@
         <v>1</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>100</v>
@@ -12489,13 +12452,13 @@
         <v>41</v>
       </c>
       <c r="Y92" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z92" t="s">
         <v>41</v>
       </c>
       <c r="AA92" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB92" t="s">
         <v>42</v>
@@ -12513,7 +12476,7 @@
         <v>45</v>
       </c>
       <c r="AG92" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AH92">
         <v>100</v>
@@ -12522,13 +12485,13 @@
         <v>47</v>
       </c>
       <c r="AJ92" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK92" t="s">
         <v>48</v>
       </c>
       <c r="AL92">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:38">
@@ -12536,19 +12499,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C93">
         <v>2706</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
-      </c>
-      <c r="E93">
-        <v>95</v>
+        <v>227</v>
+      </c>
+      <c r="E93" t="s">
+        <v>228</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -12596,55 +12559,7 @@
         <v>0</v>
       </c>
       <c r="V93">
-        <v>1</v>
-      </c>
-      <c r="W93">
-        <v>100</v>
-      </c>
-      <c r="X93" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA93">
-        <v>100</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH93" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI93" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ93">
-        <v>100</v>
-      </c>
-      <c r="AK93" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL93">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:38">
@@ -12652,16 +12567,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C94">
         <v>570</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
-      </c>
-      <c r="E94">
-        <v>100</v>
+        <v>230</v>
+      </c>
+      <c r="E94" t="s">
+        <v>53</v>
       </c>
       <c r="F94" t="s">
         <v>40</v>
@@ -12727,7 +12642,7 @@
         <v>45</v>
       </c>
       <c r="AA94">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AB94" t="s">
         <v>42</v>
@@ -12751,16 +12666,16 @@
         <v>45</v>
       </c>
       <c r="AI94" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AJ94">
         <v>100</v>
       </c>
       <c r="AK94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL94">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:38">
@@ -12768,16 +12683,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C95">
         <v>3120</v>
       </c>
       <c r="D95" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="E95">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F95" t="s">
         <v>40</v>
@@ -12810,22 +12725,22 @@
         <v>4</v>
       </c>
       <c r="P95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2</v>
       </c>
       <c r="U95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V95">
         <v>2</v>
@@ -12834,19 +12749,19 @@
         <v>100</v>
       </c>
       <c r="X95" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z95" t="s">
         <v>42</v>
       </c>
-      <c r="Y95" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>45</v>
-      </c>
       <c r="AA95">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AB95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC95" t="s">
         <v>43</v>
@@ -12861,22 +12776,22 @@
         <v>45</v>
       </c>
       <c r="AG95" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AH95">
+        <v>100</v>
       </c>
       <c r="AI95" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ95">
-        <v>100</v>
+        <v>56</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>53</v>
       </c>
       <c r="AK95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL95">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:38">
@@ -12884,13 +12799,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C96">
         <v>3126</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -12983,7 +12898,7 @@
         <v>45</v>
       </c>
       <c r="AI96" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AJ96">
         <v>100</v>
@@ -13000,16 +12915,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C97">
         <v>3312</v>
       </c>
       <c r="D97" t="s">
-        <v>240</v>
-      </c>
-      <c r="E97" t="s">
-        <v>59</v>
+        <v>236</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
       </c>
       <c r="F97" t="s">
         <v>40</v>
@@ -13033,10 +12948,10 @@
         <v>3</v>
       </c>
       <c r="M97">
+        <v>8</v>
+      </c>
+      <c r="N97">
         <v>5</v>
-      </c>
-      <c r="N97">
-        <v>8</v>
       </c>
       <c r="O97">
         <v>4</v>
@@ -13054,11 +12969,11 @@
         <v>2</v>
       </c>
       <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
         <v>3</v>
       </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
       <c r="V97">
         <v>2</v>
       </c>
@@ -13066,16 +12981,16 @@
         <v>100</v>
       </c>
       <c r="X97" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y97">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>53</v>
       </c>
       <c r="Z97" t="s">
         <v>42</v>
       </c>
-      <c r="AA97">
-        <v>89</v>
+      <c r="AA97" t="s">
+        <v>53</v>
       </c>
       <c r="AB97" t="s">
         <v>41</v>
@@ -13087,28 +13002,28 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF97">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>45</v>
       </c>
       <c r="AG97" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="AH97">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AI97" t="s">
         <v>47</v>
       </c>
       <c r="AJ97" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK97" t="s">
         <v>48</v>
       </c>
-      <c r="AL97">
-        <v>89</v>
+      <c r="AL97" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:38">
@@ -13116,16 +13031,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C98">
         <v>3288</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
-      </c>
-      <c r="E98" t="s">
-        <v>59</v>
+        <v>236</v>
+      </c>
+      <c r="E98">
+        <v>100</v>
       </c>
       <c r="F98" t="s">
         <v>40</v>
@@ -13149,10 +13064,10 @@
         <v>3</v>
       </c>
       <c r="M98">
+        <v>7</v>
+      </c>
+      <c r="N98">
         <v>4</v>
-      </c>
-      <c r="N98">
-        <v>7</v>
       </c>
       <c r="O98">
         <v>4</v>
@@ -13170,11 +13085,11 @@
         <v>2</v>
       </c>
       <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>3</v>
       </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
       <c r="V98">
         <v>2</v>
       </c>
@@ -13182,16 +13097,16 @@
         <v>100</v>
       </c>
       <c r="X98" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y98">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>53</v>
       </c>
       <c r="Z98" t="s">
         <v>42</v>
       </c>
-      <c r="AA98">
-        <v>100</v>
+      <c r="AA98" t="s">
+        <v>53</v>
       </c>
       <c r="AB98" t="s">
         <v>41</v>
@@ -13203,28 +13118,28 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF98">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>45</v>
       </c>
       <c r="AG98" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="AH98">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI98" t="s">
         <v>47</v>
       </c>
-      <c r="AJ98">
-        <v>72</v>
+      <c r="AJ98" t="s">
+        <v>53</v>
       </c>
       <c r="AK98" t="s">
         <v>48</v>
       </c>
-      <c r="AL98">
-        <v>100</v>
+      <c r="AL98" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:38">
@@ -13232,16 +13147,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C99">
         <v>1560</v>
       </c>
       <c r="D99" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F99" t="s">
         <v>40</v>
@@ -13283,7 +13198,7 @@
         <v>1</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99">
         <v>2</v>
@@ -13300,14 +13215,14 @@
       <c r="X99" t="s">
         <v>41</v>
       </c>
-      <c r="Y99">
-        <v>98</v>
+      <c r="Y99" t="s">
+        <v>44</v>
       </c>
       <c r="Z99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AA99">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB99" t="s">
         <v>42</v>
@@ -13325,22 +13240,22 @@
         <v>45</v>
       </c>
       <c r="AG99" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI99" t="s">
         <v>46</v>
       </c>
-      <c r="AH99">
-        <v>100</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>82</v>
-      </c>
       <c r="AJ99">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL99">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:38">
@@ -13348,13 +13263,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C100">
         <v>3348</v>
       </c>
-      <c r="E100" t="s">
-        <v>59</v>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100">
+        <v>95</v>
       </c>
       <c r="F100" t="s">
         <v>40</v>
@@ -13390,10 +13308,10 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -13461,16 +13379,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C101">
         <v>1989</v>
       </c>
       <c r="D101" t="s">
-        <v>246</v>
-      </c>
-      <c r="E101" t="s">
-        <v>59</v>
+        <v>243</v>
+      </c>
+      <c r="E101">
+        <v>70</v>
       </c>
       <c r="F101" t="s">
         <v>40</v>
@@ -13506,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101">
         <v>1</v>
@@ -13530,13 +13448,13 @@
         <v>41</v>
       </c>
       <c r="Y101">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="Z101" t="s">
         <v>42</v>
       </c>
       <c r="AA101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB101" t="s">
         <v>41</v>
@@ -13563,13 +13481,13 @@
         <v>47</v>
       </c>
       <c r="AJ101">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AK101" t="s">
         <v>48</v>
       </c>
       <c r="AL101">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:38">
@@ -13577,16 +13495,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C102">
         <v>1170</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
         <v>40</v>
@@ -13646,13 +13564,13 @@
         <v>41</v>
       </c>
       <c r="Y102">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="Z102" t="s">
         <v>41</v>
       </c>
       <c r="AA102">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AB102" t="s">
         <v>41</v>
@@ -13670,7 +13588,7 @@
         <v>45</v>
       </c>
       <c r="AG102" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AH102">
         <v>100</v>
@@ -13679,13 +13597,13 @@
         <v>47</v>
       </c>
       <c r="AJ102">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AK102" t="s">
         <v>48</v>
       </c>
       <c r="AL102">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:38">
@@ -13693,13 +13611,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C103">
         <v>972</v>
       </c>
-      <c r="E103" t="s">
-        <v>59</v>
+      <c r="E103">
+        <v>76</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
@@ -13759,13 +13677,13 @@
         <v>41</v>
       </c>
       <c r="Y103">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z103" t="s">
         <v>41</v>
       </c>
-      <c r="AA103">
-        <v>72</v>
+      <c r="AA103" t="s">
+        <v>53</v>
       </c>
       <c r="AB103" t="s">
         <v>42</v>
@@ -13792,13 +13710,13 @@
         <v>47</v>
       </c>
       <c r="AJ103">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AK103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL103">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:38">
@@ -13806,16 +13724,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C104">
         <v>1818</v>
       </c>
       <c r="D104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
         <v>40</v>
@@ -13851,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -13881,7 +13799,7 @@
         <v>41</v>
       </c>
       <c r="AA104">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB104" t="s">
         <v>41</v>
@@ -13914,7 +13832,7 @@
         <v>48</v>
       </c>
       <c r="AL104">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:38">
@@ -13922,13 +13840,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C105">
         <v>993</v>
       </c>
+      <c r="D105" t="s">
+        <v>250</v>
+      </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
         <v>40</v>
@@ -13964,37 +13885,37 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105">
         <v>2</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W105">
         <v>100</v>
       </c>
       <c r="X105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y105">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="Z105" t="s">
         <v>42</v>
       </c>
-      <c r="AA105">
-        <v>73</v>
+      <c r="AA105" t="s">
+        <v>53</v>
       </c>
       <c r="AB105" t="s">
         <v>41</v>
@@ -14006,10 +13927,10 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF105" t="s">
-        <v>45</v>
+        <v>101</v>
+      </c>
+      <c r="AF105">
+        <v>100</v>
       </c>
       <c r="AG105" t="s">
         <v>46</v>
@@ -14020,14 +13941,14 @@
       <c r="AI105" t="s">
         <v>47</v>
       </c>
-      <c r="AJ105">
-        <v>90</v>
+      <c r="AJ105" t="s">
+        <v>53</v>
       </c>
       <c r="AK105" t="s">
         <v>48</v>
       </c>
-      <c r="AL105">
-        <v>73</v>
+      <c r="AL105" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:38">
@@ -14035,13 +13956,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C106">
         <v>978</v>
       </c>
+      <c r="D106" t="s">
+        <v>250</v>
+      </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F106" t="s">
         <v>40</v>
@@ -14077,10 +14001,10 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S106">
         <v>2</v>
@@ -14101,13 +14025,13 @@
         <v>41</v>
       </c>
       <c r="Y106">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z106" t="s">
         <v>42</v>
       </c>
       <c r="AA106">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AB106" t="s">
         <v>42</v>
@@ -14131,16 +14055,16 @@
         <v>100</v>
       </c>
       <c r="AI106" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="AJ106">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL106">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:38">
@@ -14148,19 +14072,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C107">
         <v>1050</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -14188,75 +14112,6 @@
       </c>
       <c r="O107">
         <v>10</v>
-      </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <v>3</v>
-      </c>
-      <c r="T107">
-        <v>3</v>
-      </c>
-      <c r="U107">
-        <v>3</v>
-      </c>
-      <c r="V107">
-        <v>3</v>
-      </c>
-      <c r="W107">
-        <v>100</v>
-      </c>
-      <c r="X107" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y107">
-        <v>100</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA107">
-        <v>100</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD107" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF107">
-        <v>100</v>
-      </c>
-      <c r="AG107" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH107">
-        <v>100</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ107">
-        <v>100</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL107">
-        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:38">
@@ -14264,19 +14119,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C108">
         <v>987</v>
       </c>
       <c r="D108" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -14304,75 +14159,6 @@
       </c>
       <c r="O108">
         <v>10</v>
-      </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <v>1</v>
-      </c>
-      <c r="T108">
-        <v>1</v>
-      </c>
-      <c r="U108">
-        <v>1</v>
-      </c>
-      <c r="V108">
-        <v>1</v>
-      </c>
-      <c r="W108">
-        <v>100</v>
-      </c>
-      <c r="X108" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y108">
-        <v>98</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC108" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD108" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE108" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF108" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG108" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH108">
-        <v>100</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL108">
-        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:38">
@@ -14380,16 +14166,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C109">
         <v>1074</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" t="s">
         <v>40</v>
@@ -14413,10 +14199,10 @@
         <v>8</v>
       </c>
       <c r="M109">
+        <v>9</v>
+      </c>
+      <c r="N109">
         <v>8</v>
-      </c>
-      <c r="N109">
-        <v>9</v>
       </c>
       <c r="O109">
         <v>9</v>
@@ -14448,14 +14234,14 @@
       <c r="X109" t="s">
         <v>41</v>
       </c>
-      <c r="Y109">
-        <v>100</v>
+      <c r="Y109" t="s">
+        <v>53</v>
       </c>
       <c r="Z109" t="s">
         <v>42</v>
       </c>
       <c r="AA109">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AB109" t="s">
         <v>42</v>
@@ -14479,16 +14265,16 @@
         <v>100</v>
       </c>
       <c r="AI109" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AJ109">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AK109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL109">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:38">
@@ -14496,16 +14282,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C110">
         <v>7260</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F110" t="s">
         <v>40</v>
@@ -14547,31 +14333,31 @@
         <v>1</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T110">
         <v>1</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W110">
         <v>100</v>
       </c>
       <c r="X110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y110">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Z110" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA110">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>53</v>
       </c>
       <c r="AB110" t="s">
         <v>42</v>
@@ -14583,13 +14369,13 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="AF110">
+        <v>100</v>
       </c>
       <c r="AG110" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AH110">
         <v>100</v>
@@ -14598,13 +14384,13 @@
         <v>47</v>
       </c>
       <c r="AJ110">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AK110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AL110">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:38">
@@ -14612,16 +14398,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C111">
         <v>2112</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F111" t="s">
         <v>40</v>
@@ -14681,13 +14467,13 @@
         <v>41</v>
       </c>
       <c r="Y111" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z111" t="s">
         <v>41</v>
       </c>
       <c r="AA111" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB111" t="s">
         <v>41</v>
@@ -14714,13 +14500,13 @@
         <v>47</v>
       </c>
       <c r="AJ111" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK111" t="s">
         <v>48</v>
       </c>
       <c r="AL111" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:38">
@@ -14728,16 +14514,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C112">
         <v>2346</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E112" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F112" t="s">
         <v>40</v>
@@ -14761,10 +14547,10 @@
         <v>3</v>
       </c>
       <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
         <v>4</v>
-      </c>
-      <c r="N112">
-        <v>2</v>
       </c>
       <c r="O112">
         <v>3</v>
@@ -14785,10 +14571,10 @@
         <v>1</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>100</v>
@@ -14797,13 +14583,13 @@
         <v>41</v>
       </c>
       <c r="Y112" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z112" t="s">
         <v>41</v>
       </c>
       <c r="AA112" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB112" t="s">
         <v>42</v>
@@ -14830,13 +14616,13 @@
         <v>47</v>
       </c>
       <c r="AJ112" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK112" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="AL112">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:38">
@@ -14844,16 +14630,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C113">
         <v>558</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s">
         <v>40</v>
@@ -14898,7 +14684,7 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U113">
         <v>2</v>
@@ -14910,19 +14696,19 @@
         <v>100</v>
       </c>
       <c r="X113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y113" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z113" t="s">
         <v>42</v>
       </c>
-      <c r="AA113">
-        <v>100</v>
+      <c r="AA113" t="s">
+        <v>53</v>
       </c>
       <c r="AB113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC113" t="s">
         <v>43</v>
@@ -14931,13 +14717,13 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF113" t="s">
-        <v>45</v>
+        <v>84</v>
+      </c>
+      <c r="AF113">
+        <v>100</v>
       </c>
       <c r="AG113" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AH113">
         <v>100</v>
@@ -14946,13 +14732,13 @@
         <v>47</v>
       </c>
       <c r="AJ113" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL113">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:38">
@@ -14960,16 +14746,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C114">
         <v>1047</v>
       </c>
       <c r="D114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114" t="s">
         <v>40</v>
@@ -15026,10 +14812,10 @@
         <v>100</v>
       </c>
       <c r="X114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y114" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Z114" t="s">
         <v>42</v>
@@ -15047,22 +14833,22 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF114" t="s">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="AF114">
+        <v>100</v>
       </c>
       <c r="AG114" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AH114">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AI114" t="s">
         <v>47</v>
       </c>
       <c r="AJ114" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK114" t="s">
         <v>48</v>
@@ -15076,16 +14862,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C115">
         <v>1119</v>
       </c>
       <c r="D115" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E115" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F115" t="s">
         <v>40</v>
@@ -15118,49 +14904,49 @@
         <v>10</v>
       </c>
       <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
         <v>0</v>
       </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <v>1</v>
-      </c>
-      <c r="S115">
-        <v>1</v>
-      </c>
-      <c r="T115">
-        <v>2</v>
-      </c>
-      <c r="U115">
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <v>2</v>
-      </c>
       <c r="W115">
         <v>100</v>
       </c>
       <c r="X115" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z115" t="s">
         <v>42</v>
       </c>
-      <c r="Y115" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z115" t="s">
-        <v>41</v>
-      </c>
       <c r="AA115" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB115" t="s">
         <v>41</v>
       </c>
       <c r="AC115" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AD115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE115" t="s">
         <v>44</v>
@@ -15169,7 +14955,7 @@
         <v>45</v>
       </c>
       <c r="AG115" t="s">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="AH115">
         <v>100</v>
@@ -15178,13 +14964,13 @@
         <v>47</v>
       </c>
       <c r="AJ115" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK115" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL115" t="s">
         <v>53</v>
-      </c>
-      <c r="AL115" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:38">
@@ -15192,16 +14978,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C116">
         <v>2247</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F116" t="s">
         <v>40</v>
@@ -15237,19 +15023,19 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>1</v>
       </c>
       <c r="U116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V116">
         <v>1</v>
@@ -15279,7 +15065,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AF116">
         <v>100</v>
@@ -15297,10 +15083,10 @@
         <v>45</v>
       </c>
       <c r="AK116" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AL116">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:38">
@@ -15308,16 +15094,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C117">
         <v>3090</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
-      </c>
-      <c r="E117" t="s">
-        <v>59</v>
+        <v>272</v>
+      </c>
+      <c r="E117">
+        <v>100</v>
       </c>
       <c r="F117" t="s">
         <v>40</v>
@@ -15350,25 +15136,25 @@
         <v>10</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>1</v>
       </c>
       <c r="S117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>100</v>
@@ -15377,10 +15163,10 @@
         <v>41</v>
       </c>
       <c r="Y117" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Z117" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA117">
         <v>100</v>
@@ -15401,22 +15187,22 @@
         <v>45</v>
       </c>
       <c r="AG117" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH117" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AH117">
+        <v>100</v>
       </c>
       <c r="AI117" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="AJ117">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AK117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL117">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:38">
@@ -15424,19 +15210,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C118">
         <v>2160</v>
       </c>
-      <c r="D118" t="s">
-        <v>45</v>
-      </c>
-      <c r="E118" t="s">
-        <v>279</v>
+      <c r="E118">
+        <v>93</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -15464,6 +15247,75 @@
       </c>
       <c r="O118">
         <v>5</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
+        <v>1</v>
+      </c>
+      <c r="W118">
+        <v>100</v>
+      </c>
+      <c r="X118" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA118">
+        <v>99</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH118">
+        <v>100</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL118">
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:38">
@@ -15471,19 +15323,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C119">
         <v>975</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
-      </c>
-      <c r="E119" t="s">
-        <v>279</v>
+        <v>275</v>
+      </c>
+      <c r="E119">
+        <v>99</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -15504,13 +15356,82 @@
         <v>3</v>
       </c>
       <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
         <v>3</v>
-      </c>
-      <c r="N119">
-        <v>4</v>
       </c>
       <c r="O119">
         <v>3</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>100</v>
+      </c>
+      <c r="X119" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y119">
+        <v>99</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH119">
+        <v>100</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ119">
+        <v>85</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:38">
@@ -15518,19 +15439,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C120">
         <v>1404</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
-      </c>
-      <c r="E120" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="E120">
+        <v>100</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -15558,6 +15479,75 @@
       </c>
       <c r="O120">
         <v>4</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>1</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>1</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>100</v>
+      </c>
+      <c r="X120" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y120">
+        <v>100</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA120">
+        <v>86</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH120">
+        <v>100</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ120">
+        <v>100</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL120">
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:38">
@@ -15565,46 +15555,115 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C121">
         <v>1056</v>
       </c>
       <c r="D121" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121">
+        <v>89</v>
+      </c>
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="J121">
+        <v>10</v>
+      </c>
+      <c r="K121">
+        <v>10</v>
+      </c>
+      <c r="L121">
+        <v>10</v>
+      </c>
+      <c r="M121">
+        <v>10</v>
+      </c>
+      <c r="N121">
+        <v>10</v>
+      </c>
+      <c r="O121">
+        <v>10</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>1</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>2</v>
+      </c>
+      <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
+        <v>100</v>
+      </c>
+      <c r="X121" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF121" t="s">
         <v>45</v>
       </c>
-      <c r="E121" t="s">
-        <v>279</v>
-      </c>
-      <c r="F121" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121">
-        <v>10</v>
-      </c>
-      <c r="H121">
-        <v>10</v>
-      </c>
-      <c r="I121">
-        <v>10</v>
-      </c>
-      <c r="J121">
-        <v>10</v>
-      </c>
-      <c r="K121">
-        <v>10</v>
-      </c>
-      <c r="L121">
-        <v>10</v>
-      </c>
-      <c r="M121">
-        <v>10</v>
-      </c>
-      <c r="N121">
-        <v>10</v>
-      </c>
-      <c r="O121">
-        <v>10</v>
+      <c r="AG121" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH121">
+        <v>100</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL121">
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:38">
@@ -15612,7 +15671,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C122">
         <v>1023</v>
@@ -15621,7 +15680,7 @@
         <v>45</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F122" t="s">
         <v>45</v>
